--- a/Plan/Table/TestData/02.CardData.xlsx
+++ b/Plan/Table/TestData/02.CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70D5F9E-8288-4165-BADA-D21CD96451A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7302EF-8C28-49DC-8AF5-71DDAF35AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="3090" windowWidth="14505" windowHeight="13485" xr2:uid="{28E9751F-FF9E-4C05-9DC4-3738770342A9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14505" windowHeight="13485" xr2:uid="{EB86C725-8027-4B35-AE41-9B5A5DF42164}"/>
   </bookViews>
   <sheets>
     <sheet name="02.CardData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="321">
   <si>
     <t>ID</t>
   </si>
@@ -302,100 +302,703 @@
     <t>Card_ToolEnhancement_Des</t>
   </si>
   <si>
+    <t>Card_AdventurerTorch</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Name</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Des</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Name</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Des</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Name</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Des</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Name</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Des</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Arrow</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Arrow_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Sparkle</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Name</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Des</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Pierce</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Pierce_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Frog</t>
+  </si>
+  <si>
+    <t>Card_Frog_Name</t>
+  </si>
+  <si>
+    <t>Card_Frog_Des</t>
+  </si>
+  <si>
+    <t>Card_Frog_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Frog_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Frog_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Name</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Des</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ignite</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Name</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Des</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ember</t>
+  </si>
+  <si>
+    <t>Card_Ember_Name</t>
+  </si>
+  <si>
+    <t>Card_Ember_Des</t>
+  </si>
+  <si>
+    <t>Card_Ember_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ember_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ember_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Name</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Des</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Volcano</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Name</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Des</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Freeze</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Name</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Des</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Name</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Des</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Name</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Des</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Current</t>
+  </si>
+  <si>
+    <t>Card_Current_Name</t>
+  </si>
+  <si>
+    <t>Card_Current_Des</t>
+  </si>
+  <si>
+    <t>Card_Current_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Current_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Current_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Name</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Des</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Spark</t>
+  </si>
+  <si>
+    <t>Card_Spark_Name</t>
+  </si>
+  <si>
+    <t>Card_Spark_Des</t>
+  </si>
+  <si>
+    <t>Card_Spark_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Spark_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Spark_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Name</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Des</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_type</t>
+  </si>
+  <si>
+    <t>Char_type</t>
+  </si>
+  <si>
+    <t>Card_Upgraded_Type</t>
+  </si>
+  <si>
+    <t>Card_Upgraded_Key</t>
+  </si>
+  <si>
+    <t>Card_Rarity</t>
+  </si>
+  <si>
+    <t>Char_bit</t>
+  </si>
+  <si>
+    <t>Tag_bit</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Card_Add_Id_1</t>
+  </si>
+  <si>
+    <t>Card_Add_Id_2</t>
+  </si>
+  <si>
+    <t>Card_Add_Id_3</t>
+  </si>
+  <si>
+    <t>Card_Dex_Id</t>
+  </si>
+  <si>
+    <t>Card_sort</t>
+  </si>
+  <si>
+    <t>Card_Grid_Image</t>
+  </si>
+  <si>
+    <t>Card_Image</t>
+  </si>
+  <si>
+    <t>Card_Effect_101</t>
+  </si>
+  <si>
+    <t>Card_Illust_101</t>
+  </si>
+  <si>
+    <t>Card_Effect_102</t>
+  </si>
+  <si>
+    <t>Card_Illust_102</t>
+  </si>
+  <si>
+    <t>Card_Illust_105</t>
+  </si>
+  <si>
+    <t>Card_Effect_107</t>
+  </si>
+  <si>
+    <t>Card_Illust_107</t>
+  </si>
+  <si>
+    <t>Card_Effect_109</t>
+  </si>
+  <si>
+    <t>Card_Effect_111</t>
+  </si>
+  <si>
+    <t>Card_Illust_111</t>
+  </si>
+  <si>
+    <t>Card_Illust_113</t>
+  </si>
+  <si>
+    <t>Card_Effect_115</t>
+  </si>
+  <si>
+    <t>Card_Illust_115</t>
+  </si>
+  <si>
+    <t>Card_Illust_117</t>
+  </si>
+  <si>
+    <t>Card_Illust_119</t>
+  </si>
+  <si>
+    <t>Card_Effect_121</t>
+  </si>
+  <si>
+    <t>Card_Illust_121</t>
+  </si>
+  <si>
+    <t>Card_Effect_124</t>
+  </si>
+  <si>
+    <t>Card_Effect_125</t>
+  </si>
+  <si>
+    <t>Card_Adventurer'sTorch_Enhanced</t>
+  </si>
+  <si>
     <t>Card_Adventurer'sTorch</t>
   </si>
   <si>
-    <t>Card_Adventurer'sTorch_Name</t>
-  </si>
-  <si>
-    <t>Card_Adventurer'sTorch_Des</t>
-  </si>
-  <si>
-    <t>Card_Adventurer'sTorch_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Adventurer'sTorch_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Adventurer'sTorch_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Name</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Des</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Name</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Des</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_type</t>
-  </si>
-  <si>
-    <t>Char_type</t>
-  </si>
-  <si>
-    <t>Card_Upgraded_Type</t>
-  </si>
-  <si>
-    <t>Card_Upgraded_Key</t>
-  </si>
-  <si>
-    <t>Card_Rarity</t>
-  </si>
-  <si>
-    <t>Char_bit</t>
-  </si>
-  <si>
-    <t>Tag_bit</t>
-  </si>
-  <si>
-    <t>Card_Add_Id_1</t>
-  </si>
-  <si>
-    <t>Card_Add_Id_2</t>
-  </si>
-  <si>
-    <t>Card_Add_Id_3</t>
-  </si>
-  <si>
-    <t>Card_Dex_Id</t>
-  </si>
-  <si>
-    <t>Card_sort</t>
-  </si>
-  <si>
-    <t>Card_Grid_Image</t>
-  </si>
-  <si>
-    <t>Card_Image</t>
+    <t>Card_Effect_133</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce</t>
   </si>
 </sst>
 </file>
@@ -778,16 +1381,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6016EFC-3665-4AAD-82FD-18D1D081912B}">
-  <dimension ref="A1:R35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAB60AA-B88A-40C9-8BCE-5DA96AAB9673}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+      <selection sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,49 +1405,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="Q1" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="S1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -895,11 +1502,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -951,11 +1561,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>297</v>
+      </c>
+      <c r="S3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1007,11 +1620,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>295</v>
+      </c>
+      <c r="S4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1063,11 +1679,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>297</v>
+      </c>
+      <c r="S5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1119,11 +1738,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>295</v>
+      </c>
+      <c r="S6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1175,11 +1797,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>295</v>
+      </c>
+      <c r="S7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1231,11 +1856,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>300</v>
+      </c>
+      <c r="S8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1287,11 +1915,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>300</v>
+      </c>
+      <c r="S9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1343,11 +1974,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>302</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1399,11 +2033,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>302</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1455,11 +2092,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>303</v>
+      </c>
+      <c r="S12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1511,11 +2151,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>303</v>
+      </c>
+      <c r="S13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1553,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1567,11 +2210,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>295</v>
+      </c>
+      <c r="S14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1609,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1623,11 +2269,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>295</v>
+      </c>
+      <c r="S15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1679,11 +2328,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1735,11 +2387,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>306</v>
+      </c>
+      <c r="S17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1791,11 +2446,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>306</v>
+      </c>
+      <c r="S18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>118</v>
       </c>
@@ -1847,11 +2505,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>306</v>
+      </c>
+      <c r="S19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1903,11 +2564,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>297</v>
+      </c>
+      <c r="S20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1959,11 +2623,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>297</v>
+      </c>
+      <c r="S21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>121</v>
       </c>
@@ -2015,11 +2682,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>310</v>
+      </c>
+      <c r="S22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>122</v>
       </c>
@@ -2071,11 +2741,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>310</v>
+      </c>
+      <c r="S23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>123</v>
       </c>
@@ -2113,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2127,11 +2800,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>295</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>124</v>
       </c>
@@ -2169,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2183,11 +2859,14 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>125</v>
       </c>
@@ -2225,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2239,11 +2918,14 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>313</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>126</v>
       </c>
@@ -2298,8 +2980,11 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>127</v>
       </c>
@@ -2354,8 +3039,11 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -2410,8 +3098,11 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>129</v>
       </c>
@@ -2434,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2449,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2463,11 +3154,14 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>312</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>130</v>
       </c>
@@ -2490,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2505,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2519,11 +3213,14 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>312</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>131</v>
       </c>
@@ -2561,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2575,11 +3272,14 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>295</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>132</v>
       </c>
@@ -2617,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2631,11 +3331,14 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>295</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>133</v>
       </c>
@@ -2673,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2687,11 +3390,14 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>316</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>134</v>
       </c>
@@ -2729,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2743,7 +3449,3432 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="s">
+        <v>316</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>257</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>257</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>317</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>768</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>318</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>768</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>384</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>384</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>319</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>768</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>768</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>768</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>768</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>211</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>768</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>212</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>768</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>768</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>768</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>768</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>768</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>768</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>154</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>768</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>512</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>169</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>128</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>222</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>128</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>223</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>772</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>772</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>225</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>181</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>772</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>772</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>187</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>772</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>772</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>229</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>193</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>772</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>772</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>231</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>199</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>772</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>772</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>772</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>202</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>772</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>235</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>211</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>776</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>776</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>217</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>776</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>776</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>239</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>223</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>776</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>220</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>776</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>229</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>776</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>242</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>226</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>776</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>243</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>235</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>776</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>244</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>776</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>241</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>776</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>246</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>238</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>776</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>247</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>784</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>244</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>784</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>253</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>784</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>250</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>250</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>784</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>251</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>784</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>256</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>784</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>265</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>784</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>254</v>
+      </c>
+      <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" t="s">
+        <v>267</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>262</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>784</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>255</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>271</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>784</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>256</v>
+      </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>268</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>784</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>257</v>
+      </c>
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>277</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>784</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>258</v>
+      </c>
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>274</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>784</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/TestData/02.CardData.xlsx
+++ b/Plan/Table/TestData/02.CardData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7302EF-8C28-49DC-8AF5-71DDAF35AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96778209-7463-4CF3-9BDB-62F7A220EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14505" windowHeight="13485" xr2:uid="{EB86C725-8027-4B35-AE41-9B5A5DF42164}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{05A001A4-6FF3-4E1C-8731-FD26D72B6C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="02.CardData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="325">
   <si>
     <t>ID</t>
   </si>
@@ -122,856 +122,868 @@
     <t>Card_Axe_Enhanced_Des</t>
   </si>
   <si>
+    <t>Card_CrossChisel</t>
+  </si>
+  <si>
+    <t>Card_Cross Chisel_Name</t>
+  </si>
+  <si>
+    <t>Card_Cross Chisel_Des</t>
+  </si>
+  <si>
+    <t>Card_CrossChisel_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Cross Chisel_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Cross Chisel_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Pickaxe</t>
+  </si>
+  <si>
+    <t>Card_Pickaxe_Name</t>
+  </si>
+  <si>
+    <t>Card_Pickaxe_Des</t>
+  </si>
+  <si>
+    <t>Card_Pickaxe_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Pickaxe_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Pickaxe_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Slingshot</t>
+  </si>
+  <si>
+    <t>Card_Slingshot_Name</t>
+  </si>
+  <si>
+    <t>Card_Slingshot_Des</t>
+  </si>
+  <si>
+    <t>Card_Slingshot_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Slingshot_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Slingshot_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_CornerCrushingHammer</t>
+  </si>
+  <si>
+    <t>Card_CornerCrushingHammer_Name</t>
+  </si>
+  <si>
+    <t>Card_CornerCrushingHammer_Des</t>
+  </si>
+  <si>
+    <t>Card_CornerCrushingHammer_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_CornerCrushingHammer_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_CornerCrushingHammer_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_ConcentratedCrossDrill</t>
+  </si>
+  <si>
+    <t>Card_ConcentratedCrossDrill_Name</t>
+  </si>
+  <si>
+    <t>Card_ConcentratedCrossDrill_Des</t>
+  </si>
+  <si>
+    <t>Card_ConcentratedCrossDrill_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_ConcentratedCrossDrill_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_ConcentratedCrossDrill_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_GoldenAxe</t>
+  </si>
+  <si>
+    <t>Card_GoldenAxe_Name</t>
+  </si>
+  <si>
+    <t>Card_GoldenAxe_Des</t>
+  </si>
+  <si>
+    <t>Card_GoldenAxe_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_GoldenAxe_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_GoldenAxe_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_LargeScissors</t>
+  </si>
+  <si>
+    <t>Card_Large Scissors_Name</t>
+  </si>
+  <si>
+    <t>Card_Large Scissors_Des</t>
+  </si>
+  <si>
+    <t>Card_LargeScissors_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Large Scissors_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Large Scissors_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_WeakeningNormal</t>
+  </si>
+  <si>
+    <t>Card_WeakeningNormal_Name</t>
+  </si>
+  <si>
+    <t>Card_WeakeningNormal_Des</t>
+  </si>
+  <si>
+    <t>Card_WeakeningRare</t>
+  </si>
+  <si>
+    <t>Card_WeakeningRare_Name</t>
+  </si>
+  <si>
+    <t>Card_WeakeningRare_Des</t>
+  </si>
+  <si>
+    <t>Card_WeakeningUnique</t>
+  </si>
+  <si>
+    <t>Card_WeakeningUnique_Name</t>
+  </si>
+  <si>
+    <t>Card_WeakeningUnique_Des</t>
+  </si>
+  <si>
+    <t>Card_Bag</t>
+  </si>
+  <si>
+    <t>Card_Bag_Name</t>
+  </si>
+  <si>
+    <t>Card_Bag_Des</t>
+  </si>
+  <si>
+    <t>Card_ToolTransformation</t>
+  </si>
+  <si>
+    <t>Card_ToolTransformation_Name</t>
+  </si>
+  <si>
+    <t>Card_ToolTransformation_Des</t>
+  </si>
+  <si>
+    <t>Card_ToolEnhancement</t>
+  </si>
+  <si>
+    <t>Card_ToolEnhancement_Name</t>
+  </si>
+  <si>
+    <t>Card_ToolEnhancement_Des</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Name</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Des</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_AdventurerTorch_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Name</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Des</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_HammerOfMemory_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Name</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Des</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_RiftStartumAnalysis_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Name</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Des</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Novice_Wand_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Arrow</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Arrow_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Arrow_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Sparkle</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Name</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Des</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Sparkle_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Pierce</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Pierce_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Mana_Pierce_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Spear_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Slash_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Sword_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Claw_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Des</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Magic_Cannon_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Frog</t>
+  </si>
+  <si>
+    <t>Card_Frog_Name</t>
+  </si>
+  <si>
+    <t>Card_Frog_Des</t>
+  </si>
+  <si>
+    <t>Card_Frog_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Frog_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Frog_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Name</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Des</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Inchant_Magic_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ignite</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Name</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Des</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ignite_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Explosion_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ember</t>
+  </si>
+  <si>
+    <t>Card_Ember_Name</t>
+  </si>
+  <si>
+    <t>Card_Ember_Des</t>
+  </si>
+  <si>
+    <t>Card_Ember_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ember_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ember_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Des</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Flame_Wall_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Name</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Des</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Chain_Ignition_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Volcano</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Name</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Des</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Volcano_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Freeze</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Name</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Des</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Freeze_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Name</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Des</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Frost_Blast_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Name</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Des</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Spreading_Frost_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Sword_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Spear_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Des</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Ice_Arrow_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Current</t>
+  </si>
+  <si>
+    <t>Card_Current_Name</t>
+  </si>
+  <si>
+    <t>Card_Current_Des</t>
+  </si>
+  <si>
+    <t>Card_Current_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Current_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Current_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Storm_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Name</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Des</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Overcurrent_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Des</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Lightning_Spear_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Spark</t>
+  </si>
+  <si>
+    <t>Card_Spark_Name</t>
+  </si>
+  <si>
+    <t>Card_Spark_Des</t>
+  </si>
+  <si>
+    <t>Card_Spark_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Spark_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Spark_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Name</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Des</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Enhanced_Name</t>
+  </si>
+  <si>
+    <t>Card_Thunderbolt_Enhanced_Des</t>
+  </si>
+  <si>
+    <t>Card_type</t>
+  </si>
+  <si>
+    <t>Char_type</t>
+  </si>
+  <si>
+    <t>Card_Upgraded_Type</t>
+  </si>
+  <si>
+    <t>Card_Upgraded_Key</t>
+  </si>
+  <si>
+    <t>Card_Rarity</t>
+  </si>
+  <si>
+    <t>Char_bit</t>
+  </si>
+  <si>
+    <t>Tag_bit</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Card_Add_Id_1</t>
+  </si>
+  <si>
+    <t>Card_Add_Id_2</t>
+  </si>
+  <si>
+    <t>Card_Add_Id_3</t>
+  </si>
+  <si>
+    <t>Card_Dex_Id</t>
+  </si>
+  <si>
+    <t>Card_sort</t>
+  </si>
+  <si>
+    <t>Card_Grid_Image</t>
+  </si>
+  <si>
+    <t>Card_Image</t>
+  </si>
+  <si>
+    <t>Card_Effect_101</t>
+  </si>
+  <si>
+    <t>Card_Illust_101</t>
+  </si>
+  <si>
+    <t>Card_Effect_102</t>
+  </si>
+  <si>
+    <t>Card_Illust_102</t>
+  </si>
+  <si>
+    <t>Card_Illust_105</t>
+  </si>
+  <si>
+    <t>Card_Effect_107</t>
+  </si>
+  <si>
+    <t>Card_Illust_107</t>
+  </si>
+  <si>
+    <t>Card_Cross Chisel_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Effect_109</t>
+  </si>
+  <si>
     <t>Card_Cross Chisel</t>
   </si>
   <si>
-    <t>Card_Cross Chisel_Name</t>
-  </si>
-  <si>
-    <t>Card_Cross Chisel_Des</t>
-  </si>
-  <si>
-    <t>Card_Cross Chisel_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Cross Chisel_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Cross Chisel_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Pickaxe</t>
-  </si>
-  <si>
-    <t>Card_Pickaxe_Name</t>
-  </si>
-  <si>
-    <t>Card_Pickaxe_Des</t>
-  </si>
-  <si>
-    <t>Card_Pickaxe_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Pickaxe_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Pickaxe_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Slingshot</t>
-  </si>
-  <si>
-    <t>Card_Slingshot_Name</t>
-  </si>
-  <si>
-    <t>Card_Slingshot_Des</t>
-  </si>
-  <si>
-    <t>Card_Slingshot_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Slingshot_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Slingshot_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_CornerCrushingHammer</t>
-  </si>
-  <si>
-    <t>Card_CornerCrushingHammer_Name</t>
-  </si>
-  <si>
-    <t>Card_CornerCrushingHammer_Des</t>
-  </si>
-  <si>
-    <t>Card_CornerCrushingHammer_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_CornerCrushingHammer_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_CornerCrushingHammer_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_ConcentratedCrossDrill</t>
-  </si>
-  <si>
-    <t>Card_ConcentratedCrossDrill_Name</t>
-  </si>
-  <si>
-    <t>Card_ConcentratedCrossDrill_Des</t>
-  </si>
-  <si>
-    <t>Card_ConcentratedCrossDrill_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_ConcentratedCrossDrill_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_ConcentratedCrossDrill_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_GoldenAxe</t>
-  </si>
-  <si>
-    <t>Card_GoldenAxe_Name</t>
-  </si>
-  <si>
-    <t>Card_GoldenAxe_Des</t>
-  </si>
-  <si>
-    <t>Card_GoldenAxe_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_GoldenAxe_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_GoldenAxe_Enhanced_Des</t>
+    <t>Card_Effect_111</t>
+  </si>
+  <si>
+    <t>Card_Illust_111</t>
+  </si>
+  <si>
+    <t>Card_Illust_113</t>
+  </si>
+  <si>
+    <t>Card_Effect_115</t>
+  </si>
+  <si>
+    <t>Card_Illust_115</t>
+  </si>
+  <si>
+    <t>Card_Illust_117</t>
+  </si>
+  <si>
+    <t>Card_Illust_119</t>
+  </si>
+  <si>
+    <t>Card_Large Scissors_Enhanced</t>
+  </si>
+  <si>
+    <t>Card_Effect_121</t>
+  </si>
+  <si>
+    <t>Card_Illust_121</t>
   </si>
   <si>
     <t>Card_Large Scissors</t>
-  </si>
-  <si>
-    <t>Card_Large Scissors_Name</t>
-  </si>
-  <si>
-    <t>Card_Large Scissors_Des</t>
-  </si>
-  <si>
-    <t>Card_Large Scissors_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Large Scissors_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Large Scissors_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_WeakeningNormal</t>
-  </si>
-  <si>
-    <t>Card_WeakeningNormal_Name</t>
-  </si>
-  <si>
-    <t>Card_WeakeningNormal_Des</t>
-  </si>
-  <si>
-    <t>Card_WeakeningRare</t>
-  </si>
-  <si>
-    <t>Card_WeakeningRare_Name</t>
-  </si>
-  <si>
-    <t>Card_WeakeningRare_Des</t>
-  </si>
-  <si>
-    <t>Card_WeakeningUnique</t>
-  </si>
-  <si>
-    <t>Card_WeakeningUnique_Name</t>
-  </si>
-  <si>
-    <t>Card_WeakeningUnique_Des</t>
-  </si>
-  <si>
-    <t>Card_Bag</t>
-  </si>
-  <si>
-    <t>Card_Bag_Name</t>
-  </si>
-  <si>
-    <t>Card_Bag_Des</t>
-  </si>
-  <si>
-    <t>Card_ToolTransformation</t>
-  </si>
-  <si>
-    <t>Card_ToolTransformation_Name</t>
-  </si>
-  <si>
-    <t>Card_ToolTransformation_Des</t>
-  </si>
-  <si>
-    <t>Card_ToolEnhancement</t>
-  </si>
-  <si>
-    <t>Card_ToolEnhancement_Name</t>
-  </si>
-  <si>
-    <t>Card_ToolEnhancement_Des</t>
-  </si>
-  <si>
-    <t>Card_AdventurerTorch</t>
-  </si>
-  <si>
-    <t>Card_AdventurerTorch_Name</t>
-  </si>
-  <si>
-    <t>Card_AdventurerTorch_Des</t>
-  </si>
-  <si>
-    <t>Card_AdventurerTorch_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_AdventurerTorch_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_AdventurerTorch_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Name</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Des</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_HammerOfMemory_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Name</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Des</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_RiftStartumAnalysis_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Novice_Wand</t>
-  </si>
-  <si>
-    <t>Card_Novice_Wand_Name</t>
-  </si>
-  <si>
-    <t>Card_Novice_Wand_Des</t>
-  </si>
-  <si>
-    <t>Card_Novice_Wand_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Novice_Wand_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Novice_Wand_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Arrow</t>
-  </si>
-  <si>
-    <t>Card_Mana_Arrow_Name</t>
-  </si>
-  <si>
-    <t>Card_Mana_Arrow_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Arrow_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Mana_Arrow_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Mana_Arrow_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Sparkle</t>
-  </si>
-  <si>
-    <t>Card_Sparkle_Name</t>
-  </si>
-  <si>
-    <t>Card_Sparkle_Des</t>
-  </si>
-  <si>
-    <t>Card_Sparkle_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Sparkle_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Sparkle_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Pierce</t>
-  </si>
-  <si>
-    <t>Card_Mana_Pierce_Name</t>
-  </si>
-  <si>
-    <t>Card_Mana_Pierce_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Pierce_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Mana_Pierce_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Mana_Pierce_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Spear</t>
-  </si>
-  <si>
-    <t>Card_Magic_Spear_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Spear_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Spear_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Magic_Spear_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Spear_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Slash</t>
-  </si>
-  <si>
-    <t>Card_Magic_Slash_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Slash_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Slash_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Magic_Slash_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Slash_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Sword</t>
-  </si>
-  <si>
-    <t>Card_Magic_Sword_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Sword_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Sword_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Magic_Sword_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Sword_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Claw</t>
-  </si>
-  <si>
-    <t>Card_Magic_Claw_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Claw_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Claw_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Magic_Claw_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Claw_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Cannon</t>
-  </si>
-  <si>
-    <t>Card_Magic_Cannon_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Cannon_Des</t>
-  </si>
-  <si>
-    <t>Card_Magic_Cannon_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Magic_Cannon_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Magic_Cannon_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Frog</t>
-  </si>
-  <si>
-    <t>Card_Frog_Name</t>
-  </si>
-  <si>
-    <t>Card_Frog_Des</t>
-  </si>
-  <si>
-    <t>Card_Frog_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Frog_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Frog_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Inchant_Magic</t>
-  </si>
-  <si>
-    <t>Card_Inchant_Magic_Name</t>
-  </si>
-  <si>
-    <t>Card_Inchant_Magic_Des</t>
-  </si>
-  <si>
-    <t>Card_Inchant_Magic_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Inchant_Magic_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Inchant_Magic_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Ignite</t>
-  </si>
-  <si>
-    <t>Card_Ignite_Name</t>
-  </si>
-  <si>
-    <t>Card_Ignite_Des</t>
-  </si>
-  <si>
-    <t>Card_Ignite_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Ignite_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Ignite_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Flame_Explosion</t>
-  </si>
-  <si>
-    <t>Card_Flame_Explosion_Name</t>
-  </si>
-  <si>
-    <t>Card_Flame_Explosion_Des</t>
-  </si>
-  <si>
-    <t>Card_Flame_Explosion_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Flame_Explosion_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Flame_Explosion_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Ember</t>
-  </si>
-  <si>
-    <t>Card_Ember_Name</t>
-  </si>
-  <si>
-    <t>Card_Ember_Des</t>
-  </si>
-  <si>
-    <t>Card_Ember_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Ember_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Ember_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Flame_Wall</t>
-  </si>
-  <si>
-    <t>Card_Flame_Wall_Name</t>
-  </si>
-  <si>
-    <t>Card_Flame_Wall_Des</t>
-  </si>
-  <si>
-    <t>Card_Flame_Wall_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Flame_Wall_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Flame_Wall_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Chain_Ignition</t>
-  </si>
-  <si>
-    <t>Card_Chain_Ignition_Name</t>
-  </si>
-  <si>
-    <t>Card_Chain_Ignition_Des</t>
-  </si>
-  <si>
-    <t>Card_Chain_Ignition_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Chain_Ignition_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Chain_Ignition_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Volcano</t>
-  </si>
-  <si>
-    <t>Card_Volcano_Name</t>
-  </si>
-  <si>
-    <t>Card_Volcano_Des</t>
-  </si>
-  <si>
-    <t>Card_Volcano_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Volcano_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Volcano_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Freeze</t>
-  </si>
-  <si>
-    <t>Card_Freeze_Name</t>
-  </si>
-  <si>
-    <t>Card_Freeze_Des</t>
-  </si>
-  <si>
-    <t>Card_Freeze_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Freeze_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Freeze_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Frost_Blast</t>
-  </si>
-  <si>
-    <t>Card_Frost_Blast_Name</t>
-  </si>
-  <si>
-    <t>Card_Frost_Blast_Des</t>
-  </si>
-  <si>
-    <t>Card_Frost_Blast_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Frost_Blast_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Frost_Blast_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Spreading_Frost</t>
-  </si>
-  <si>
-    <t>Card_Spreading_Frost_Name</t>
-  </si>
-  <si>
-    <t>Card_Spreading_Frost_Des</t>
-  </si>
-  <si>
-    <t>Card_Spreading_Frost_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Spreading_Frost_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Spreading_Frost_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Ice_Sword</t>
-  </si>
-  <si>
-    <t>Card_Ice_Sword_Name</t>
-  </si>
-  <si>
-    <t>Card_Ice_Sword_Des</t>
-  </si>
-  <si>
-    <t>Card_Ice_Sword_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Ice_Sword_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Ice_Sword_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Ice_Spear</t>
-  </si>
-  <si>
-    <t>Card_Ice_Spear_Name</t>
-  </si>
-  <si>
-    <t>Card_Ice_Spear_Des</t>
-  </si>
-  <si>
-    <t>Card_Ice_Spear_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Ice_Spear_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Ice_Spear_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Ice_Arrow</t>
-  </si>
-  <si>
-    <t>Card_Ice_Arrow_Name</t>
-  </si>
-  <si>
-    <t>Card_Ice_Arrow_Des</t>
-  </si>
-  <si>
-    <t>Card_Ice_Arrow_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Ice_Arrow_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Ice_Arrow_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Current</t>
-  </si>
-  <si>
-    <t>Card_Current_Name</t>
-  </si>
-  <si>
-    <t>Card_Current_Des</t>
-  </si>
-  <si>
-    <t>Card_Current_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Current_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Current_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Storm</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Storm_Name</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Storm_Des</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Storm_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Storm_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Storm_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Overcurrent</t>
-  </si>
-  <si>
-    <t>Card_Overcurrent_Name</t>
-  </si>
-  <si>
-    <t>Card_Overcurrent_Des</t>
-  </si>
-  <si>
-    <t>Card_Overcurrent_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Overcurrent_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Overcurrent_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Spear</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Spear_Name</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Spear_Des</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Spear_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Spear_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Lightning_Spear_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Spark</t>
-  </si>
-  <si>
-    <t>Card_Spark_Name</t>
-  </si>
-  <si>
-    <t>Card_Spark_Des</t>
-  </si>
-  <si>
-    <t>Card_Spark_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Spark_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Spark_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_Thunderbolt</t>
-  </si>
-  <si>
-    <t>Card_Thunderbolt_Name</t>
-  </si>
-  <si>
-    <t>Card_Thunderbolt_Des</t>
-  </si>
-  <si>
-    <t>Card_Thunderbolt_Enhanced</t>
-  </si>
-  <si>
-    <t>Card_Thunderbolt_Enhanced_Name</t>
-  </si>
-  <si>
-    <t>Card_Thunderbolt_Enhanced_Des</t>
-  </si>
-  <si>
-    <t>Card_type</t>
-  </si>
-  <si>
-    <t>Char_type</t>
-  </si>
-  <si>
-    <t>Card_Upgraded_Type</t>
-  </si>
-  <si>
-    <t>Card_Upgraded_Key</t>
-  </si>
-  <si>
-    <t>Card_Rarity</t>
-  </si>
-  <si>
-    <t>Char_bit</t>
-  </si>
-  <si>
-    <t>Tag_bit</t>
-  </si>
-  <si>
-    <t>Mana</t>
-  </si>
-  <si>
-    <t>Card_Add_Id_1</t>
-  </si>
-  <si>
-    <t>Card_Add_Id_2</t>
-  </si>
-  <si>
-    <t>Card_Add_Id_3</t>
-  </si>
-  <si>
-    <t>Card_Dex_Id</t>
-  </si>
-  <si>
-    <t>Card_sort</t>
-  </si>
-  <si>
-    <t>Card_Grid_Image</t>
-  </si>
-  <si>
-    <t>Card_Image</t>
-  </si>
-  <si>
-    <t>Card_Effect_101</t>
-  </si>
-  <si>
-    <t>Card_Illust_101</t>
-  </si>
-  <si>
-    <t>Card_Effect_102</t>
-  </si>
-  <si>
-    <t>Card_Illust_102</t>
-  </si>
-  <si>
-    <t>Card_Illust_105</t>
-  </si>
-  <si>
-    <t>Card_Effect_107</t>
-  </si>
-  <si>
-    <t>Card_Illust_107</t>
-  </si>
-  <si>
-    <t>Card_Effect_109</t>
-  </si>
-  <si>
-    <t>Card_Effect_111</t>
-  </si>
-  <si>
-    <t>Card_Illust_111</t>
-  </si>
-  <si>
-    <t>Card_Illust_113</t>
-  </si>
-  <si>
-    <t>Card_Effect_115</t>
-  </si>
-  <si>
-    <t>Card_Illust_115</t>
-  </si>
-  <si>
-    <t>Card_Illust_117</t>
-  </si>
-  <si>
-    <t>Card_Illust_119</t>
-  </si>
-  <si>
-    <t>Card_Effect_121</t>
-  </si>
-  <si>
-    <t>Card_Illust_121</t>
   </si>
   <si>
     <t>Card_Effect_124</t>
@@ -1381,8 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAB60AA-B88A-40C9-8BCE-5DA96AAB9673}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C446D3-1F65-40CF-BCFC-129CC0FAEC84}">
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1975,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2004,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2034,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2093,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2152,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2214,7 +2225,7 @@
         <v>295</v>
       </c>
       <c r="S14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2273,7 +2284,7 @@
         <v>295</v>
       </c>
       <c r="S15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2329,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2388,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2447,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S18" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2506,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2568,7 +2579,7 @@
         <v>297</v>
       </c>
       <c r="S20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2627,7 +2638,7 @@
         <v>297</v>
       </c>
       <c r="S21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2653,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>312</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2683,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2712,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2742,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S23" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2860,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2919,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3125,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -3155,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3184,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -3214,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3391,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3450,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3597,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3656,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3833,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -3892,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I43">
         <v>1</v>

--- a/Plan/Table/TestData/02.CardData.xlsx
+++ b/Plan/Table/TestData/02.CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96778209-7463-4CF3-9BDB-62F7A220EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5426F6-66D8-4F6D-96C9-2202288A9BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{05A001A4-6FF3-4E1C-8731-FD26D72B6C6B}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14505" windowHeight="13485" xr2:uid="{0F44A49F-B8E2-489A-82E8-8491DD6BB5E6}"/>
   </bookViews>
   <sheets>
     <sheet name="02.CardData" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C446D3-1F65-40CF-BCFC-129CC0FAEC84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C5A0B2-1876-4200-85BF-D82ED2346CF0}">
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3620,7 +3620,7 @@
         <v>768</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>768</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3856,7 +3856,7 @@
         <v>768</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>768</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>768</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>768</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>768</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>768</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>768</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>768</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>768</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>768</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>768</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>768</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>772</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>772</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>772</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>772</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>772</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>772</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>772</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>772</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>772</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>772</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>776</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>776</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>776</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>776</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>776</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>776</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>776</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5921,7 +5921,7 @@
         <v>776</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>776</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>776</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>776</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         <v>776</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>784</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>784</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>784</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>784</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>784</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -6511,7 +6511,7 @@
         <v>784</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>784</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>784</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>784</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>784</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <v>0</v>

--- a/Plan/Table/TestData/02.CardData.xlsx
+++ b/Plan/Table/TestData/02.CardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5426F6-66D8-4F6D-96C9-2202288A9BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A051DA0B-935D-433A-B230-0DFC888BD2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14505" windowHeight="13485" xr2:uid="{0F44A49F-B8E2-489A-82E8-8491DD6BB5E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5360B8DE-81B5-4978-8981-B146F42AB72F}"/>
   </bookViews>
   <sheets>
     <sheet name="02.CardData" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C5A0B2-1876-4200-85BF-D82ED2346CF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6FB553-373B-4F02-B570-7D9A00752733}">
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
